--- a/sources/Local/Nantes/Nantes - Exports - 1754.xlsx
+++ b/sources/Local/Nantes/Nantes - Exports - 1754.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Anthony Rebours</t>
   </si>
   <si>
-    <t xml:space="preserve">AD 44 C716-15</t>
+    <t xml:space="preserve">AD44 C716-15</t>
   </si>
   <si>
     <t xml:space="preserve">Sortie</t>
